--- a/classement_final.xlsx
+++ b/classement_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Clubs</t>
   </si>
@@ -22,70 +22,64 @@
     <t>Points</t>
   </si>
   <si>
-    <t>Points à domicile</t>
-  </si>
-  <si>
-    <t>Points à l'extérieur</t>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Reims</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
+    <t>Rennes</t>
   </si>
   <si>
     <t>OL</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Troyes</t>
   </si>
 </sst>
 </file>
@@ -443,364 +437,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="C5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="C6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="C7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
         <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/classement_final.xlsx
+++ b/classement_final.xlsx
@@ -22,64 +22,64 @@
     <t>Points</t>
   </si>
   <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
     <t>Nantes</t>
   </si>
   <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
     <t>Toulouse</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>OL</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,51 +470,51 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,56 +536,56 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -613,40 +613,40 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -657,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -668,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
